--- a/TRNMNT/wwwroot/FileSamples/brackets-16.xlsx
+++ b/TRNMNT/wwwroot/FileSamples/brackets-16.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18027"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onatsky\BjjApp\TRNMNT\DocSamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\BjjApp\TRNMNT\wwwroot\FileSamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -139,51 +138,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -199,9 +192,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -239,7 +232,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,6 +267,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -309,9 +319,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,281 +512,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N33"/>
+  <dimension ref="A4:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="5" max="6" width="9.140625" style="11"/>
-    <col min="7" max="9" width="9.140625" style="1"/>
-    <col min="10" max="11" width="9.140625" style="11"/>
-    <col min="12" max="14" width="9.140625" style="5"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.6328125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" style="8"/>
+    <col min="4" max="4" width="9.1796875" style="1"/>
+    <col min="5" max="5" width="20.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="1"/>
+    <col min="7" max="8" width="9.1796875" style="8"/>
+    <col min="9" max="9" width="30.6328125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="10"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="10"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E9" s="13"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="13"/>
-      <c r="F10" s="9"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="J15" s="15"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
-      <c r="J16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E19" s="10"/>
-      <c r="F19" s="13"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="13"/>
-      <c r="J20" s="15"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="7"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
-      <c r="J21" s="15"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="7"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="13"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E27" s="13"/>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="13"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D29" s="7"/>
-      <c r="E29" s="13"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="7"/>
-      <c r="E30" s="14"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="8"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D31" s="7"/>
-      <c r="E31" s="10"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="10"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="10"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="7"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="13"/>
+      <c r="C6" s="7"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="10"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="G20" s="12"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="16"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="10"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="10"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="16"/>
+      <c r="B29" s="10"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="15"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
+      <c r="B32" s="7"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L20:N20"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/TRNMNT/wwwroot/FileSamples/brackets-16.xlsx
+++ b/TRNMNT/wwwroot/FileSamples/brackets-16.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18027"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\BjjApp\TRNMNT\wwwroot\FileSamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onatsky\BjjApp\TRNMNT\wwwroot\FileSamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -32,17 +32,10 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,45 +131,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,9 +181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +221,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -267,23 +256,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -319,26 +291,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,205 +470,203 @@
   <dimension ref="A4:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6328125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="9.1796875" style="8"/>
-    <col min="4" max="4" width="9.1796875" style="1"/>
-    <col min="5" max="5" width="20.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="1"/>
-    <col min="7" max="8" width="9.1796875" style="8"/>
-    <col min="9" max="9" width="30.6328125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="30.5703125" style="3" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="20.5703125" style="10" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="30.5703125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="7"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="13"/>
-      <c r="C6" s="7"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="10"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="10"/>
-      <c r="C10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="G15" s="12"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
-      <c r="G16" s="12"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-      <c r="G20" s="12"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="G21" s="12"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="13"/>
-      <c r="C22" s="10"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="10"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
-      <c r="B28" s="10"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="16"/>
-      <c r="B29" s="10"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="15"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="7"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="7"/>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="7"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="2"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="7"/>
+      <c r="G15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="7"/>
+      <c r="G16" s="5"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="7"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="7"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="7"/>
+      <c r="G20" s="5"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="7"/>
+      <c r="G21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="7"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="7"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="2"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
